--- a/Assets/template/template_import_siswa.xlsx
+++ b/Assets/template/template_import_siswa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>kode_jurusan</t>
+  </si>
+  <si>
+    <t>sub_kelas</t>
+  </si>
+  <si>
+    <t>kelas</t>
   </si>
   <si>
     <t>noHP</t>
@@ -87,23 +93,35 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -320,7 +338,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col customWidth="1" min="1" max="8" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -342,171 +360,193 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>

--- a/Assets/template/template_import_siswa.xlsx
+++ b/Assets/template/template_import_siswa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>kelas</t>
+  </si>
+  <si>
+    <t>kode_siswa</t>
   </si>
   <si>
     <t>noHP</t>
@@ -93,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -109,19 +112,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -338,7 +335,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="12.63"/>
+    <col customWidth="1" min="1" max="9" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -354,13 +351,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -375,6 +372,9 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
@@ -388,165 +388,173 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
